--- a/practice/gmarket_best_item.xlsx
+++ b/practice/gmarket_best_item.xlsx
@@ -456,14 +456,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[블랙야크키즈](신세계하남점)땀과 물놀이에 최적화 된 최강 5부 세트 2종택1 블랙야크키즈 리버티 5부세트 젤리5부세트</t>
+          <t>(깨비농원)고당도 하우스귤 2.5kg 로얄과(S-M)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39000</v>
+        <v>31280</v>
       </c>
       <c r="D2" t="n">
-        <v>30390</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="3">
@@ -472,14 +472,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>시즌오프가 1+1 남여공용 비침없는 면 프린팅 티셔츠 장당 3750원 딱 오늘만 가능한 가격</t>
+          <t>스위트 아이스망고스틱 50g x 40봉</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25000</v>
+        <v>42710</v>
       </c>
       <c r="D3" t="n">
-        <v>7500</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="4">
@@ -504,14 +504,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>청도 달콤한 털복숭아 아삭아삭 대월 경봉 딱딱이(18-19과 내외) 4kg 아웃박스 안전배송</t>
+          <t>[메가박스](유니버스클럽 전용) 메가박스 일반예매권 2D-주중/주말</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28280</v>
+        <v>15000</v>
       </c>
       <c r="D5" t="n">
-        <v>19800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6">
@@ -520,14 +520,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[CGV](CGV) G마켓 예매권(금요특가_7/21)</t>
+          <t>[매일유업]어메이징 오트 언스위트 190ml 24팩 주말반짝특가</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="D6" t="n">
-        <v>9980</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="7">
@@ -536,14 +536,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>스테비아토마토 샤인달콤마토 500gX4팩 달콤한 방울토마토 신선한 제철과일</t>
+          <t>[디펜드]최종가17910원/디펜드 맘스 안심팬티 8매x4팩/산모전용팬티 의약외품 인증</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28900</v>
+        <v>23880</v>
       </c>
       <c r="D7" t="n">
-        <v>20900</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="8">
@@ -552,14 +552,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[메가박스](유니버스클럽 전용) 메가박스 일반예매권 2D-주중/주말</t>
+          <t>[농심]한정수량특가 올리브 짜파게티 5입X8개(40개)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15000</v>
+        <v>32900</v>
       </c>
       <c r="D8" t="n">
-        <v>15000</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="9">
@@ -568,14 +568,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[제스프리]제스프리 골드키위 2kg 공식인증 점보</t>
+          <t>[두보레]해피바스 두보레 백합 에센스비누4입 4세트(총 16개)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32430</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>22700</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="10">
@@ -584,14 +584,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[산과들에]다크초콜릿아몬드20낱봉 +10봉더</t>
+          <t>[오롯담]오롯담 나주곰탕 700g  12팩</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22200</v>
+        <v>49900</v>
       </c>
       <c r="D10" t="n">
-        <v>15500</v>
+        <v>49900</v>
       </c>
     </row>
     <row r="11">
@@ -600,14 +600,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Gfresh]산과들에 간식 견과류 달고나아몬드18g x50봉</t>
+          <t>1+1 간편세척 부드러운 애니멀 규조토 발매트</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21300</v>
+        <v>7900</v>
       </c>
       <c r="D11" t="n">
-        <v>14900</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="12">
@@ -616,14 +616,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>널담 수제쿠키 6종 1BOX / 2세트 구매시 4천원 할인</t>
+          <t>시즌오프가 1+1 남여공용 비침없는 면 프린팅 티셔츠 장당 3750원 딱 오늘만 가능한 가격</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12800</v>
+        <v>25000</v>
       </c>
       <c r="D12" t="n">
-        <v>8900</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="13">
@@ -632,14 +632,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[이마트24](클럽전용) 이마트24 1만원 금액권</t>
+          <t>[오휘](신세계강남점)[타임딜]미라클토닝 글로우 세럼 20ML 1+1(정품리필증정)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="D13" t="n">
-        <v>10000</v>
+        <v>31450</v>
       </c>
     </row>
     <row r="14">
@@ -648,14 +648,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[피코크]피코크 떡갈비 450gx6팩 (신세계푸드 중복 쿠폰 할인)</t>
+          <t>[신세계푸드]신세계푸드 직수입 워싱턴 생체리  10Row 1.5kg</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52200</v>
+        <v>24200</v>
       </c>
       <c r="D14" t="n">
-        <v>33950</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="15">
@@ -664,14 +664,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[구글플레이]기프트코드 10만원 / 구글 기프트카드</t>
+          <t>[피코크]조선호텔 포기김치 8kg(신세계푸드 중복쿠폰 할인)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100000</v>
+        <v>71000</v>
       </c>
       <c r="D15" t="n">
-        <v>95000</v>
+        <v>63900</v>
       </c>
     </row>
     <row r="16">
@@ -680,14 +680,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>참존 톤업핏 콜라겐 6000 1개월분 28병입 마시는콜라겐 300DA (유통기한 23년10월까지/임박특가)</t>
+          <t>1+1 늘어나는 벨트 남여공용 캐쥬얼 데일리</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25300</v>
+        <v>26200</v>
       </c>
       <c r="D16" t="n">
-        <v>17700</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="17">
@@ -696,14 +696,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[벨롭]밸롭 아쿠아슈즈/워터슈즈/래쉬가드/수영복/비치웨어/여성/남성/아동/키즈 모음전</t>
+          <t>[피코크]피코크 떡갈비 450gx6팩 (신세계푸드 중복 쿠폰 할인)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59000</v>
+        <v>52200</v>
       </c>
       <c r="D17" t="n">
-        <v>17700</v>
+        <v>33950</v>
       </c>
     </row>
     <row r="18">
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[너트리]볶음땅콩 3.75kg 알큰사이즈</t>
+          <t>[순수크린]순수크린 과탄산소다 5kg 버킷+스푼1개외 베이킹 모음전</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>39900</v>
+        <v>23800</v>
       </c>
       <c r="D18" t="n">
-        <v>27900</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="19">
@@ -728,14 +728,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1+1 아이스 넥쿨러  PCM 자동냉각 넥밴드 라이딩 스포츠 쿨스카프 얼음 목튜브 쿨워머</t>
+          <t>[입큰]입큰 12.5 퍼퓸 파우더 썬팩트 (본품)+사은품증정 /SPF50+ PA+++자외선차단</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36300</v>
+        <v>23800</v>
       </c>
       <c r="D19" t="n">
-        <v>10900</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="20">
@@ -744,14 +744,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10%쿠폰((오늘만 이가격))여름잠옷1+1</t>
+          <t>[구글플레이]기프트코드 10만원 / 구글 기프트카드</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33330</v>
+        <v>100000</v>
       </c>
       <c r="D20" t="n">
-        <v>10000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="21">
@@ -760,14 +760,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[CJ프레시웨이]이츠웰 맛있는 냉동 블루베리 1kgx4개</t>
+          <t>10%쿠폰 (1+1) 남녀공용 스티치 5부 트레이닝 팬츠</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33900</v>
+        <v>33000</v>
       </c>
       <c r="D21" t="n">
-        <v>33900</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="22">
@@ -776,14 +776,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>딱좋아 광천 돌김자반40gX10봉</t>
+          <t>[프로월드컵]PWX 남/여 쿨티셔츠 라운드 반팔 아이스티셔츠 메쉬기능성</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="D22" t="n">
-        <v>10500</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="23">
@@ -792,14 +792,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[숨37˚](신세계강남점)[타임딜]시크릿 에센스 45ml 기획세트</t>
+          <t>[과일나라]진주펄 염색약 3개+사은품 / 12종 컬러 염색 새치 탈색약 / 8900원 단하루 행사</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>45000</v>
+        <v>17800</v>
       </c>
       <c r="D23" t="n">
-        <v>36000</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="24">
@@ -808,14 +808,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[매일유업]상하목장 유기농 멸균우유 125ml x 48팩</t>
+          <t>[티젠]티젠 콤부차 30스틱X2박스 택2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>56100</v>
+        <v>42000</v>
       </c>
       <c r="D24" t="n">
-        <v>39300</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="25">
@@ -824,14 +824,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[해태제과]해태제과 띵동 푸드트럭</t>
+          <t>[맥퀸뉴욕]1+1 마이크로 핏 피니쉬 파우더 /유분기 컨트롤</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16400</v>
+        <v>43000</v>
       </c>
       <c r="D25" t="n">
-        <v>16400</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="26">
@@ -840,14 +840,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[탑스텝]탑스텝 캡슐세제 트리플 고농축 30개입 x 3 + 추가팩 5개입+곰팡이제거젤 증정 최대19270원</t>
+          <t>[롯데햄]롯데 의성마늘프랑크x6개+녹찐치즈x6개+매콤땡초x6개</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>43800</v>
+        <v>18100</v>
       </c>
       <c r="D26" t="n">
-        <v>21900</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="27">
@@ -856,14 +856,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[올품]올품 의성마늘 닭갈비300g6팩</t>
+          <t>[요즘에]무료반품/주말특가(10%쿠폰:14.850원)쿨맥스/연청/청바지 판매1위/하비고민 덜어주는 데님/스테디치즈데님</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20900</v>
+        <v>55000</v>
       </c>
       <c r="D27" t="n">
-        <v>20900</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="28">
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>제이준 진정보습 마스크팩 30+10매 / Summer Big Sale</t>
+          <t>[탑텐](롯데백화점)아동)라운지웨어 반소매민소매 18종  택1  MKC2UI3002</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55000</v>
+        <v>5000</v>
       </c>
       <c r="D28" t="n">
-        <v>16900</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="29">
@@ -888,14 +888,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[한복선]한복선 버섯 뚝배기 불고기400g 8팩</t>
+          <t>[피자헛](피자헛) 립스테이크 리치골드L + 벌집감자 + 콜라 1.25L</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28900</v>
+        <v>49800</v>
       </c>
       <c r="D29" t="n">
-        <v>28900</v>
+        <v>26200</v>
       </c>
     </row>
     <row r="30">
@@ -904,14 +904,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>햇사레 복숭아 부드러운 황도 2.5kg(8-11과) 농협 선별</t>
+          <t>[붕어빵]패밀리 물티슈 소프트 플레인 대용량 캡 100매 x 10팩 50gms</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45570</v>
+        <v>17800</v>
       </c>
       <c r="D30" t="n">
-        <v>31900</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="31">
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[CJ제일제당][CJ] 고메 소바바치킨 5봉(순살 3+윙1+봉1)</t>
+          <t>무료반품 10% 레코브 한정수량+썸머세일 특가 원피스/블라우스/자켓/점퍼/패딩/팬츠</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34900</v>
+        <v>31900</v>
       </c>
       <c r="D31" t="n">
-        <v>33200</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="32">
@@ -936,14 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[KFC](KFC) 중복기념파티팩</t>
+          <t>약단밤 1kg(최상급)/칼집밤/쿠폰가9360원/무료배송</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25700</v>
+        <v>16800</v>
       </c>
       <c r="D32" t="n">
-        <v>16900</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="33">
@@ -952,14 +952,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[한복선](현대Hmall)대복 포기김치 10kg (꽃게육수로 시원하고 아삭한 맛)</t>
+          <t>[리코셀](10%추가쿠폰)슈퍼 딥 클린 폼 클렌저 220ml 4개 병풀+약쑥+어성초 저자극 시카 약알칼리 휩 클렌징 대용량</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>39500</v>
+        <v>25800</v>
       </c>
       <c r="D33" t="n">
-        <v>39500</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="34">
@@ -968,14 +968,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[코카콜라]캐나다 진저에일 250ml x 30입</t>
+          <t>[동원에프앤비]동원 자연산골뱅이 300g x 5개 +제로음료6병 랜덤증정</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>21500</v>
+        <v>27780</v>
       </c>
       <c r="D34" t="n">
-        <v>21500</v>
+        <v>25010</v>
       </c>
     </row>
     <row r="35">
@@ -984,14 +984,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[구글플레이]기프트코드 5만원 / 구글 기프트카드</t>
+          <t>[더푸룸]변기세정제 45g 40개 (특가행사)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50000</v>
+        <v>15600</v>
       </c>
       <c r="D35" t="n">
-        <v>47500</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="36">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[락토핏]종근당건강 유산균 락토핏 골드 50포 3통(150일분)  +골드 30포 증정</t>
+          <t>레드자몽 대과 12과 (개당320g내외) 남아공 동일옵션 2개 구매시 3과추가</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34700</v>
+        <v>24140</v>
       </c>
       <c r="D36" t="n">
-        <v>32800</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="37">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[롯데칠성]펩시콜라 제로 210ml x 60캔 (30캔 2박스)</t>
+          <t>청도 달콤한 털복숭아 아삭아삭 대월 경봉 딱딱이(18-19과 내외) 4kg 아웃박스 안전배송</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29500</v>
+        <v>28280</v>
       </c>
       <c r="D37" t="n">
-        <v>29500</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="38">
@@ -1032,14 +1032,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[사보텐]씽씽배송사보텐 등심 돈카츠 130g 10팩</t>
+          <t>[농협안심한우]쿠폰가 9160원 4팩 무료배송) 농협안심한우 1등급 암소한우 냉장 불고기 국거리 400g</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30900</v>
+        <v>10900</v>
       </c>
       <c r="D38" t="n">
-        <v>29900</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="39">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[지오클린]지오클린 레몬테라피 주방세제 1종 대용량 4L 2개 베이킹소다 식초 사은공병</t>
+          <t>아삭아삭 사과 실중량4kg 썸머킹 /17~23과 중소과</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20800</v>
+        <v>32710</v>
       </c>
       <c r="D39" t="n">
-        <v>10400</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[아침농산]국산 찰흑미 500g x 3개 흑미 2022년 햅쌀</t>
+          <t>최초2만원인하 더엣지 23SS 뉴 버튼카라니트 4종</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7400</v>
+        <v>39900</v>
       </c>
       <c r="D40" t="n">
-        <v>5900</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="41">
@@ -1080,14 +1080,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[베스트웨이]어린이 튜브 모음전 원형 물놀이 라이더 수영용품</t>
+          <t>경북영천 GAP인증 딱딱이 털복숭아 소과 4kg 19-21과 / 쿠폰가 17520</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>49000</v>
+        <v>31280</v>
       </c>
       <c r="D41" t="n">
-        <v>14900</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="42">
@@ -1096,14 +1096,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[떡보의하루]떡편 우유설기 5개입x3박스 개별포장 백설기 아이간식 식사대용</t>
+          <t>[CGV](첫구매/웰컴백 쿠폰최종가 5 000원) CGV 미션임파서블7 전용예매권</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17900</v>
+        <v>15000</v>
       </c>
       <c r="D42" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="43">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>창의사고력수학 팩토/소마셈 세트 단계별 선택구매 (킨더팩토/키즈팩토/LV1~6)</t>
+          <t>[CGV](CGV) G마켓 예매권(금요특가_7/21)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100800</v>
+        <v>15000</v>
       </c>
       <c r="D43" t="n">
-        <v>50400</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="44">
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[뮬라웨어]역대급 혜택이 가득한 뮬라웨어 베스트 아이템 최대 89% 만나보세요</t>
+          <t>[동원샘물]동원샘물 500ml 40병 /생수전문배송</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>61000</v>
+        <v>10000</v>
       </c>
       <c r="D44" t="n">
-        <v>18620</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="45">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[AHC]AHC 마스터즈 에어리치 선스틱 22g+14g /박세리선스틱 +증정</t>
+          <t>[프로월드컵]PWX 샌들/슬리퍼 아쿠아슈즈 런닝화 운동화 사무용슬리퍼</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30900</v>
+        <v>33000</v>
       </c>
       <c r="D45" t="n">
-        <v>30900</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="46">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[쟈스]쟈스 엑토인 맨얼굴 크림 55ml</t>
+          <t>[이마트24](클럽전용) 이마트24 1만원 금액권</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26900</v>
+        <v>10000</v>
       </c>
       <c r="D46" t="n">
-        <v>26900</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="47">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[쟈스]쟈스 엑토인 맨얼굴 크림 55ml</t>
+          <t>[겔업]겔업 고농축 액체세제 2.5L x 4개 세탁세제 총10000ml</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29000</v>
+        <v>17800</v>
       </c>
       <c r="D47" t="n">
-        <v>29000</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="48">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[농심]한정수량특가 올리브 짜파게티 5입X8개(40개)</t>
+          <t>[마스터바이옴]지노마스터 착 40일분 리스펙타 질건강유산균 + 20일분 추가 증정 / 유통기한 임박 2023.09.30</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32900</v>
+        <v>18700</v>
       </c>
       <c r="D48" t="n">
-        <v>32900</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="49">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[티젠]티젠 콤부차 30스틱X2박스 택2</t>
+          <t>[CGV](CGV) 미션임파서블7 전용 예매권-07월 17일부터 구매/사용가능</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="D49" t="n">
-        <v>18600</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="50">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[구글플레이]기프트코드 3만원 / 구글 기프트카드</t>
+          <t>[숨37˚](신세계강남점)[타임딜]시크릿 에센스 45ml 기획세트</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="D50" t="n">
-        <v>28500</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="51">
@@ -1240,14 +1240,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[베베숲]베베숲 홈 유아 세탁세제 1L 2개 + 유아 섬유유연제 1L 2개 + 버그프리 증정</t>
+          <t>이맛쌀 20kg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>71600</v>
+        <v>51900</v>
       </c>
       <c r="D51" t="n">
-        <v>71600</v>
+        <v>46710</v>
       </c>
     </row>
     <row r="52">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[피자헛](피자헛) 수퍼슈프림 오리지널L + 콘소메 팝콘치킨 + 콜라 1.25L</t>
+          <t>[코디]기름먹는 UKP 키친타올 140매 4롤 3팩</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>42300</v>
+        <v>28800</v>
       </c>
       <c r="D52" t="n">
-        <v>21500</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="53">
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>(놀이대전) 캐리비안베이 골드1 골드2 종일권(이용기간 상이)</t>
+          <t>[맥퀸뉴욕]1+1파우더매트 립스틱 구름같은 무광발색</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>79000</v>
+        <v>39000</v>
       </c>
       <c r="D53" t="n">
-        <v>49000</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="54">
@@ -1288,14 +1288,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[CGV](CGV) 미션임파서블7 전용 예매권-07월 17일부터 구매/사용가능</t>
+          <t>[TS티마]여름마스크 100매 TS 레모나 위가드 스카이슘 새부리형 중형 대형 KF94 쿨마스크 모음전</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="D54" t="n">
-        <v>7500</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="55">
@@ -1304,14 +1304,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[뱅뱅]15%쿠폰 뱅뱅 본사입점 기념  여름 남여캐주얼 핫템</t>
+          <t>[메디플라워]에트투스 트리트먼트 헤어팩 /아르간 헤어팩 1000ml</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="D55" t="n">
-        <v>7300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[신세계푸드]제스프리 골드키위 점보 2.6kg (17개 내외)(중복쿠폰할인)</t>
+          <t>방촌시장원조떡볶이 밀떡/납작만두/어묵/소스 총 646g X2팩 4~6인분 TV소개된 대구3대떡볶이 맵기선택</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23500</v>
+        <v>20800</v>
       </c>
       <c r="D56" t="n">
-        <v>23500</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="57">
@@ -1336,14 +1336,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>여수할마니 남도 갓김치 2kg 국내산 재료 제조 여수갓김치</t>
+          <t>(10%) 마미소 1등템 국민반바지/단하루 5850원 /오늘만초특가/세상편한 고무줄팬츠</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13900</v>
+        <v>21600</v>
       </c>
       <c r="D57" t="n">
-        <v>13900</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="58">
@@ -1352,14 +1352,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[꾸즈]꾸즈 NC 컴포트팬츠 3종(+벨트1종)</t>
+          <t>[구글플레이]기프트코드 5만원 / 구글 기프트카드</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>39900</v>
+        <v>50000</v>
       </c>
       <c r="D58" t="n">
-        <v>39900</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="59">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[하프클럽/쟈뎅]인기음료 파우치/페트 230ml 350ml 묶음 18종 택 1</t>
+          <t>[KFC](KFC) 중복기념파티팩</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17900</v>
+        <v>25700</v>
       </c>
       <c r="D59" t="n">
-        <v>17900</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="60">
@@ -1384,14 +1384,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[CGV](첫구매/웰컴백 쿠폰최종가 5 000원) CGV 미션임파서블7 전용예매권</t>
+          <t>[파스퇴르]파스퇴르 무항생제 바른목장우유 190mL48팩</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15000</v>
+        <v>32900</v>
       </c>
       <c r="D60" t="n">
-        <v>15000</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="61">
@@ -1400,14 +1400,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>파머스픽 유명산지 수박 9~10kg미만</t>
+          <t>[리르]콜라겐 리프팅 괄사 마사지크림 / 5중 탄력개선 임상 완료</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21900</v>
+        <v>33000</v>
       </c>
       <c r="D61" t="n">
-        <v>21900</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="62">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>푸마골프외 무더위 화끈한 가격인하+프로모션 up to 82% 카라티셔츠/쿨링팬츠/베이스레이어/반팔티</t>
+          <t>[지방시](신세계강남점)[선물포장] 로즈 퍼펙토 립 밤 세트 (+향수 미니어처 8ml+파데 샤쉐 1ML 2개 증정)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>33000</v>
+        <v>49000</v>
       </c>
       <c r="D62" t="n">
-        <v>9900</v>
+        <v>41650</v>
       </c>
     </row>
     <row r="63">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>이맛쌀 20kg</t>
+          <t>[맥도날드](맥도날드) 디지털 2만원권</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>51900</v>
+        <v>20000</v>
       </c>
       <c r="D63" t="n">
-        <v>46710</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="64">
@@ -1448,14 +1448,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[나이키골프]나이키 남여공용볼캡 골프모자 4종 헤리티지86 레거시91</t>
+          <t>제주직송 포근포근 미니 밤호박 3kg(5~11)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="D64" t="n">
-        <v>15000</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="65">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[파스퇴르]파스퇴르 무항생제 바른목장우유 190mL48팩</t>
+          <t>[락토핏]종근당건강 유산균 락토핏 골드 50포 3통(150일분)  +골드 30포 증정</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32900</v>
+        <v>34700</v>
       </c>
       <c r="D65" t="n">
-        <v>32900</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="66">
@@ -1480,14 +1480,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>스위트 아이스망고스틱 50g x 40봉</t>
+          <t>(놀이대전) 캐리비안베이 골드1 골드2 종일권(이용기간 상이)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>42710</v>
+        <v>79000</v>
       </c>
       <c r="D66" t="n">
-        <v>29900</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="67">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[햇반]햇반 210g x24입</t>
+          <t>[벨롭]밸롭 아쿠아슈즈/워터슈즈/래쉬가드/수영복/비치웨어/여성/남성/아동/키즈 모음전</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27500</v>
+        <v>59000</v>
       </c>
       <c r="D67" t="n">
-        <v>27500</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="68">
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[아이리스코리아]1+1 아이리스 옷장수납 대형 투명 플라스틱 서랍장 리빙박스</t>
+          <t>[제주삼다수][무료배송] 제주 삼다수 그린(무라벨) 2L 24병 (유라벨/무라벨 랜덤발송)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>24900</v>
+        <v>25920</v>
       </c>
       <c r="D68" t="n">
-        <v>24900</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="69">
@@ -1528,14 +1528,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[요즘에]무료반품/주말특가(쿠폰가 19980원)4만장 판매 썸머버전 출시/4칼라/숏 미들 롱/S~XL/썸머굿포유일자슬랙스</t>
+          <t>[구글플레이]기프트코드 3만원 / 구글 기프트카드</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>74000</v>
+        <v>30000</v>
       </c>
       <c r="D69" t="n">
-        <v>22200</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="70">
@@ -1544,14 +1544,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[게스]누구나 20%+5%쿠폰 게스본사 S/S 신상이월 인기상품 할인전</t>
+          <t>[에그머니](에그머니) 온라인게임상품권 5만원</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>78000</v>
+        <v>50000</v>
       </c>
       <c r="D70" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="71">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>모던 스텐 304 냉장고물병 2P세트 외 주방용품 BEST</t>
+          <t>인생 삼계탕 백종원의 인생삼계탕 1 2kg x 8팩</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>29400</v>
+        <v>69900</v>
       </c>
       <c r="D71" t="n">
-        <v>19900</v>
+        <v>68900</v>
       </c>
     </row>
     <row r="72">
@@ -1576,14 +1576,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">[맥심](행사상품)N 동서식품맥심모카골드믹스230T 2760G </t>
+          <t>[비비안 슬림핏] 비비안 SLIMFIT 울트라 라이트 패키지(+전고객 브라팬티 1세트)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>28750</v>
+        <v>109900</v>
       </c>
       <c r="D72" t="n">
-        <v>28750</v>
+        <v>99900</v>
       </c>
     </row>
     <row r="73">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>당도선별 하우스감귤 1.8kg (팩)</t>
+          <t>[올반키친]올반 얇은피인생왕교자 455gx4팩(신세계푸드 중복쿠폰 할인)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24800</v>
+        <v>17000</v>
       </c>
       <c r="D73" t="n">
-        <v>24800</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="74">
@@ -1608,14 +1608,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(문자발송) 롯데워터파크 골드시즌 종일권(~8/27)/경남 워터파크/가족 여행</t>
+          <t>[농심]백산수 무라벨 2L 24병 /생수전문배송</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>36100</v>
+        <v>25700</v>
       </c>
       <c r="D74" t="n">
-        <v>36100</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="75">
@@ -1624,14 +1624,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[에그머니](에그머니) 온라인게임상품권 5만원</t>
+          <t>창의사고력수학 팩토/소마셈 세트 단계별 선택구매 (킨더팩토/키즈팩토/LV1~6)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>50000</v>
+        <v>100800</v>
       </c>
       <c r="D75" t="n">
-        <v>45000</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="76">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[요즘에]무료반품/주말특가(10%쿠폰:14.850원)쿨맥스/연청/청바지 판매1위/하비고민 덜어주는 데님/스테디치즈데님</t>
+          <t>[산과들에]다크초콜릿아몬드20낱봉 +10봉더</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>55000</v>
+        <v>22200</v>
       </c>
       <c r="D76" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="77">
@@ -1656,14 +1656,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[쟈스]엑토인 맨얼굴크림 톤업 영양 수분 크림 SPF20 PA++ 55ml/30ml</t>
+          <t>[구글플레이]기프트코드 20만원 / 구글 기프트카드</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>28000</v>
+        <v>200000</v>
       </c>
       <c r="D77" t="n">
-        <v>28000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="78">
@@ -1672,14 +1672,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>청도 달콤한 털복숭아 아삭아삭 대월 경봉 딱딱이(12-13과 내외) 4kg 아웃박스 안전배송</t>
+          <t>(놀이대전)전국 히어로플레이파크/히어로키즈카페/경주/대구/동탄/부산/양산/의정부/청주/창원</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>29800</v>
+        <v>18000</v>
       </c>
       <c r="D78" t="n">
-        <v>29800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="79">
@@ -1688,14 +1688,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[베네통골프] 23SS 여성 팬츠3종</t>
+          <t>[요기요](요기요) 1만원권</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>79000</v>
+        <v>10000</v>
       </c>
       <c r="D79" t="n">
-        <v>79000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="80">
@@ -1704,14 +1704,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[필립스]PHILIPS 필립스 코털제거기 NT1620/15 콧털 정리 트리머</t>
+          <t>베스트밀 냉동 오겹살 400g 5팩 (총 2kg)  400g씩 소분 포장하여 발송</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>22000</v>
+        <v>35600</v>
       </c>
       <c r="D80" t="n">
-        <v>14340</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="81">
@@ -1720,14 +1720,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[구글플레이]기프트코드 1만원 / 구글 기프트카드</t>
+          <t>[화과방]유기농 우유로 만든 우유앙빵 /앙빵 딸기 35gx20개입 행사중</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10000</v>
+        <v>25900</v>
       </c>
       <c r="D81" t="n">
-        <v>9500</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="82">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>집콕 메밀 경추베개 일자목 목디스크 거북목베개</t>
+          <t>[피죤]액츠퍼펙트 겸용세탁세제 3L+2.2Lx3개+실내건조1.5L증정/특가19900원</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>29900</v>
+        <v>45300</v>
       </c>
       <c r="D82" t="n">
-        <v>10000</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="83">
@@ -1752,14 +1752,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[아디다스]아디다스 퍼포먼스 스포티 드로즈 9종 패키지 남성 최신상</t>
+          <t>백종원 인생삼계탕  1200g  8팩</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>196600</v>
+        <v>69900</v>
       </c>
       <c r="D83" t="n">
-        <v>59000</v>
+        <v>68900</v>
       </c>
     </row>
     <row r="84">
@@ -1768,14 +1768,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>당도선별 어상천 수박 6kg 이상</t>
+          <t>[데상트]데상트 스포츠양말 3족 세트 (3개입 1팩)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26900</v>
+        <v>33000</v>
       </c>
       <c r="D84" t="n">
-        <v>26900</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="85">
@@ -1784,14 +1784,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[아토세이프]최종혜택가 14520원 아토세이프 귀찮아 습기제거제 520ml 24개입/제습제/장마철필수품</t>
+          <t>[뱅뱅]뱅뱅外 여름 시즌오프 특가 반팔티/반바지/데님 외</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>19900</v>
+        <v>29300</v>
       </c>
       <c r="D85" t="n">
-        <v>19900</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="86">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>기획 유명산지 부드러운 복숭아 1.8kg (박스)</t>
+          <t>나이키 뉴발란스 스우시 6팩 크루삭스 운동 스포츠양말</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24900</v>
+        <v>11900</v>
       </c>
       <c r="D86" t="n">
-        <v>24900</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="87">
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[풀무원건강생활]풀무원 혈당케어 1+1/최대60%OFF/바나바잎/하루 1알로 식후혈당케어/소비자가5만원</t>
+          <t>[BubbasFineFoods]나이키/47브랜드 모자 15종 택1</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22220</v>
+        <v>19900</v>
       </c>
       <c r="D87" t="n">
-        <v>22220</v>
+        <v>19450</v>
       </c>
     </row>
     <row r="88">
@@ -1832,14 +1832,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[리코셀](최종가 9810원)저자극 알로에 수딩젤 1000ml 1+1 98% 알로에베라 대용량 진정 수분 보습 얼굴 바디 케어</t>
+          <t>[롯데칠성]펩시콜라 제로 210ml x 60캔 (30캔 2박스)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>21800</v>
+        <v>29500</v>
       </c>
       <c r="D88" t="n">
-        <v>10900</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="89">
@@ -1848,14 +1848,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>어육 85% 우리쌀로 만든 야심찬 어묵탕 230g x 5봉/쿠폰가:14940원</t>
+          <t>[SOil](S-OIL) 에쓰-오일 모바일주유상품권 5만원권</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="D89" t="n">
-        <v>16600</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="90">
@@ -1864,14 +1864,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[밀레](신세계하남점)[여성] 역시즌 특가 (가을/겨울) 간절기 경량 구스 다운 자켓(2종 모음) MXRWD522/MXRWD5...</t>
+          <t>제주산 당찬여주 분말12통+스푼6개</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>59000</v>
+        <v>69000</v>
       </c>
       <c r="D90" t="n">
-        <v>44140</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="91">
@@ -1880,14 +1880,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[농협안심한우]쿠폰23440원) 1등급 농협 안심 한우 국거리 덩어리 or 불고기 500g+500g 냉장 암소 / 2세트 주문시 무료배송</t>
+          <t>[맥퀸뉴욕]1+1 마이크로 핏 노세밤 파우더 /유분기 컨트롤 보송마무리</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>27900</v>
+        <v>43000</v>
       </c>
       <c r="D91" t="n">
-        <v>27900</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="92">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[구글플레이]기프트코드 20만원 / 구글 기프트카드</t>
+          <t>국내가공 오동통 가문어 통족 500g / 최종혜택가 9810원 / 안주 건어물 주전부리 간식 맥주안주</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>200000</v>
+        <v>15600</v>
       </c>
       <c r="D92" t="n">
-        <v>190000</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="93">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[오뚜기]오뚜기 맛있는 밥 210g 12입 X2박스 / 총24개 / 오뚜기 흰밥</t>
+          <t>[포렌코즈][포렌코즈] 타투 페일 벨벳 틴트</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>25900</v>
+        <v>10900</v>
       </c>
       <c r="D93" t="n">
-        <v>22900</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="94">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[옥주부]옥주부 제주돼지 돈까스 10팩(등심8+치즈2+소스10)</t>
+          <t>[햇반]햇반 210g x24입</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="D94" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="95">
@@ -1944,14 +1944,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>통영 자연산 활 돌문어 700g 1-3미 / 19710원(쿠폰가)/ 여름 보양식</t>
+          <t>[마이크로닉스]마이크로닉스 MANIC KM530 무선 저소음 키보드 마우스 합본 핑크 22일 단 하루 10900</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>31300</v>
+        <v>11720</v>
       </c>
       <c r="D95" t="n">
-        <v>21900</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="96">
@@ -1960,14 +1960,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[지오다노]15%쿠폰 지오다노 SS 여름 PK티셔츠/셔츠/슬랙스 외</t>
+          <t>[베스트웨이]어린이 튜브 모음전 원형 물놀이 라이더 수영용품</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="D96" t="n">
-        <v>15000</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="97">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[제스프리]제스프리 슈퍼점보 썬 골드키위 2kg(개당 180g내외) 공식인증 맛젤</t>
+          <t>[요즘에]무료반품/주말특가(쿠폰가 19980원)4만장 판매 썸머버전 출시/4칼라/숏 미들 롱/S~XL/썸머굿포유일자슬랙스</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>32570</v>
+        <v>74000</v>
       </c>
       <c r="D97" t="n">
-        <v>22800</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="98">
@@ -1992,14 +1992,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>(놀이대전) 천안 오션어드벤처 미들/하이/골드시즌 1인 종일권 (주중.주말 공통)</t>
+          <t>[아이더](신세계본점)23SS 아이더키즈 JUM23M81공용 쿨티셔츠+바지 세트(시원한 기능성)방학 여행 선물 바캉스 ...</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31900</v>
+        <v>35000</v>
       </c>
       <c r="D98" t="n">
-        <v>31900</v>
+        <v>29930</v>
       </c>
     </row>
     <row r="99">
@@ -2008,14 +2008,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[닥터방기원]랩 탈모샴푸 1L 2개+랩 쿨 탈모샴푸 200ml 증정</t>
+          <t>[버거킹](버거킹) 와퍼+불고기와퍼주니어+콜라R+콜라R</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>35800</v>
+        <v>15800</v>
       </c>
       <c r="D99" t="n">
-        <v>17900</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="100">
@@ -2024,14 +2024,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>링곤베리 퓨레 글루타치온 로즈힙 60정 2달치 3통 구매시 1통 증정</t>
+          <t>[프로월드컵]PWX 프로월드컵 KF94 새부리형 마스크 100매 대형 중형 소형 특대형</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>25600</v>
+        <v>19500</v>
       </c>
       <c r="D100" t="n">
-        <v>17900</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="101">
@@ -2040,14 +2040,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[마담4060](10%쿠폰: 8.910원)엄마옷 마담4060 풍기인견 플리츠팬츠 빅사이즈 -YMPN204001-</t>
+          <t>[해태제과]해태제과 띵동 푸드트럭</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>33000</v>
+        <v>16400</v>
       </c>
       <c r="D101" t="n">
-        <v>9900</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="102">
@@ -2056,14 +2056,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>당일생산 100% 국내산콩 진한 콩물 백태콩물 1L+1L</t>
+          <t>G 더달과 확신의 꿀당도 국내산 천도복숭아 2kg (개당 100g내외)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>22100</v>
+        <v>10900</v>
       </c>
       <c r="D102" t="n">
-        <v>15500</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="103">
@@ -2072,14 +2072,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>파머스픽 씨가 적어 먹기 편한 수박 7~8kg미만</t>
+          <t>[티르리르]10%중복 티르리르 여름 쥬얼리 컬렉션 제안</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>20900</v>
+        <v>69300</v>
       </c>
       <c r="D103" t="n">
-        <v>20900</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="104">
@@ -2088,14 +2088,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[바이오가이아](아이허브) 2개X 프로텍티스 베이비드롭 아기유산균 비타민D 10ml 빠른직구</t>
+          <t>모해 제주 순살 갈치조림 905g x 3팩 (총 2.715kg) (쿠폰적용가 19710원)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>68600</v>
+        <v>31300</v>
       </c>
       <c r="D104" t="n">
-        <v>53500</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="105">
@@ -2104,14 +2104,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[리빙데코]라벤더 슈퍼롱 화장지 33m30롤 x2팩/휴지/롤휴지/두루마리</t>
+          <t>[빠른무료배송]베네플러스 3겹 화장지 30m 30롤 x 2팩(60롤)천연펄프</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>45800</v>
+        <v>25850</v>
       </c>
       <c r="D105" t="n">
-        <v>22900</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="106">
@@ -2120,14 +2120,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[퍼스트스타](10%쿠폰) 가성비 포켓 7부 스판 반바지 R508 1+1</t>
+          <t>[탑텐]탑텐 본사직영 쿨에어/베이직티셔츠/팬츠 SS 베스트</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>43000</v>
+        <v>19900</v>
       </c>
       <c r="D106" t="n">
-        <v>12900</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="107">
@@ -2136,14 +2136,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[LG생활건강]피지오겔 DMT 바디로션 400mlx1개</t>
+          <t>[구글플레이]기프트코드 1만원 / 구글 기프트카드</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>28900</v>
+        <v>10000</v>
       </c>
       <c r="D107" t="n">
-        <v>28900</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="108">
@@ -2152,14 +2152,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>소중해 소중해 나도 너도+너의 마음도 전2권</t>
+          <t>[스파클]스파클생수 500ml 100병 (도착보장/무라벨생수)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>30000</v>
+        <v>19900</v>
       </c>
       <c r="D108" t="n">
-        <v>28000</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="109">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[지프] JEEP 버클 미디 레인부츠 (220-250)</t>
+          <t>[지오다노]15%쿠폰 한소희의 지오다노 여름 베스트 기본템</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>59000</v>
+        <v>50000</v>
       </c>
       <c r="D109" t="n">
-        <v>59000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="110">
@@ -2184,14 +2184,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[페이지플린]20% 페이지플린 여름신상 블라우스/원피스/팬츠 外</t>
+          <t xml:space="preserve">[농협](행사상품)믿고먹는안심농협쌀20KG 포 </t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>76330</v>
+        <v>49900</v>
       </c>
       <c r="D110" t="n">
-        <v>22900</v>
+        <v>49900</v>
       </c>
     </row>
     <row r="111">
@@ -2200,14 +2200,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[요기요](요기요) 1만원권</t>
+          <t>[신세계푸드]제스프리 골드키위 점보 2.6kg (17개 내외)(중복쿠폰할인)</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>10000</v>
+        <v>23500</v>
       </c>
       <c r="D111" t="n">
-        <v>10000</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="112">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[매일유업]어메이징 오트 언스위트 190ml 24팩 주말반짝특가</t>
+          <t>[세이프]세이프 주방세제 천연미네랄 리필 1000ML 4개</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>14100</v>
+        <v>20900</v>
       </c>
       <c r="D112" t="n">
-        <v>9900</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="113">
@@ -2232,14 +2232,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[세균아꼼짝마]세꼼마 핸드워시 3.5L 레몬향</t>
+          <t>[어나더디](15%쿠폰가 11820원)(1+1) 더 아이 주니어 하이틴 심리스 브라탑 일체형 노와이어</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>19900</v>
+        <v>46330</v>
       </c>
       <c r="D113" t="n">
-        <v>19900</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="114">
@@ -2248,14 +2248,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[베비언스]베비언스 보습 베이비 샴푸바디워시245ml 1+1</t>
+          <t>[쥬디니스]쥬디니스 대용량 디퓨저 500ml 1+1/1000ml 방향제/리필</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>17500</v>
+        <v>36000</v>
       </c>
       <c r="D114" t="n">
-        <v>17500</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="115">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[삼성전자]비스포크 냉장고 RF84C926A4E 매트크리미베이지 1등급 4도어 푸드쇼케이스</t>
+          <t>시즌오프가 1+1 남여공용 비침없는 면 프린팅 티셔츠 장당 3750원 딱 오늘만 가능한 가격</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1904250</v>
+        <v>25000</v>
       </c>
       <c r="D115" t="n">
-        <v>1790000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="116">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>쿠폰가 16660원 서귀포인정 11브릭스 하우스감귤  2.5kg 로얄과 (2S~M) / 한정수량</t>
+          <t>(행사상품)NEW고백스시모둠초밥30입</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>24500</v>
+        <v>17990</v>
       </c>
       <c r="D116" t="n">
-        <v>24500</v>
+        <v>17990</v>
       </c>
     </row>
     <row r="117">
@@ -2296,14 +2296,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[피코크]조선호텔 포기김치 8kg(신세계푸드 중복쿠폰 할인)</t>
+          <t>10%쿠폰((오늘만 이가격))여름잠옷1+1</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>71000</v>
+        <v>33330</v>
       </c>
       <c r="D117" t="n">
-        <v>63900</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="118">
@@ -2312,14 +2312,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>(깨비농원)고당도 하우스귤 2.5kg 로얄과(S-M)</t>
+          <t>[저스트원](10%쿠폰:15.520원)구김제로 링클프리 반팔셔츠/블라우스</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>31280</v>
+        <v>51700</v>
       </c>
       <c r="D118" t="n">
-        <v>21900</v>
+        <v>15520</v>
       </c>
     </row>
     <row r="119">
@@ -2328,14 +2328,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[리엔]리엔 흑모비책 골드 자연갈색 90g 4개</t>
+          <t>[쟈스]쟈스 엑토인 맨얼굴 크림 55ml</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>18900</v>
+        <v>29000</v>
       </c>
       <c r="D119" t="n">
-        <v>18900</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="120">
@@ -2344,14 +2344,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[오뚜기](행사상품)오뚜기맛있는오뚜기밥210x24입</t>
+          <t>[웅진]자연은 90일 토마토 주스 340ml x 24페트</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>21990</v>
+        <v>27900</v>
       </c>
       <c r="D120" t="n">
-        <v>21990</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="121">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[퐁퐁]뉴퐁퐁 13.7L</t>
+          <t>새우장 1kg/특제비법소스 밥도둑 간장 깐새우장</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>23500</v>
+        <v>25000</v>
       </c>
       <c r="D121" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="122">
@@ -2376,14 +2376,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[버거킹](버거킹) 와퍼+불고기와퍼주니어+콜라R+콜라R</t>
+          <t>[탑텐]탑텐 본사직영 티셔츠/원피스/라운지 외 사계절특가</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>15800</v>
+        <v>19900</v>
       </c>
       <c r="D122" t="n">
-        <v>9900</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="123">
@@ -2392,14 +2392,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>시매쓰 영재사고력수학 1031(2023개정판) / 과학 1031 단계별 선택구매</t>
+          <t>[비비고]비비고 갈비탕 400g 5봉</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>90000</v>
+        <v>22500</v>
       </c>
       <c r="D123" t="n">
-        <v>59720</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="124">
@@ -2408,14 +2408,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[그린핑거]베베그로우 베어/스타 손목치발기 1P/크림/베이지/민트/퍼플/택1 (케이스포함)</t>
+          <t>[스파클][스파클 무라벨] 스파클 생수 500ml 100병</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6900</v>
+        <v>21500</v>
       </c>
       <c r="D124" t="n">
-        <v>6900</v>
+        <v>20430</v>
       </c>
     </row>
     <row r="125">
@@ -2424,14 +2424,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[오뚜기]오뚜기 맛있는 밥 30입(210gx10)x 3개 / 오뚜기 흰밥</t>
+          <t>3장세트 심리스 네모 사각 노라인 여성팬티</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="D125" t="n">
-        <v>28000</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="126">
@@ -2440,14 +2440,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>농협 세종대왕쌀 20kg 상등급 / 22년산 / 박스포장 / 밥소믈리에 전문관리쌀</t>
+          <t>하림 팝콘치킨 1kg+1kg</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>62400</v>
+        <v>20900</v>
       </c>
       <c r="D126" t="n">
-        <v>49900</v>
+        <v>18190</v>
       </c>
     </row>
     <row r="127">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[햇살드리(양곡)]수향미 골든퀸 수향미 10kg 단일품종 상등급</t>
+          <t>국내산 쫀득 구운계란 30알 x 2판</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>44900</v>
+        <v>20000</v>
       </c>
       <c r="D127" t="n">
-        <v>35900</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="128">
@@ -2472,14 +2472,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[하기스]하기스 네이처메이드 썸머 팬티형 5단계 공용 40매 2팩 X 3세트 기저귀 NEW</t>
+          <t xml:space="preserve">[맥심](행사상품)N 동서식품맥심모카골드믹스230T 2760G </t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>165100</v>
+        <v>28750</v>
       </c>
       <c r="D128" t="n">
-        <v>165100</v>
+        <v>28750</v>
       </c>
     </row>
     <row r="129">
@@ -2488,14 +2488,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[웅진주니어]웅진주니어 앤서니 브라운 보드북 세트 선택구매</t>
+          <t>[르젠]르젠 앱연동 스마트 BLDC 리모컨 선풍기 LZEF-DC02</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>33750</v>
+        <v>72000</v>
       </c>
       <c r="D129" t="n">
-        <v>27000</v>
+        <v>66960</v>
       </c>
     </row>
     <row r="130">
@@ -2504,14 +2504,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[테리파머](쿠폰가24900원) 호텔수건 무형광 180g /200g 보더 헤밍 수건 10장 수건세트 타올 타월 호텔타올 호텔타월</t>
+          <t>1+1 아이스 넥쿨러  PCM 자동냉각 넥밴드 라이딩 스포츠 쿨스카프 얼음 목튜브 쿨워머</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>29900</v>
+        <v>36300</v>
       </c>
       <c r="D130" t="n">
-        <v>29900</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="131">
@@ -2520,14 +2520,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[이젠벅by네파] 이젠벅 네파 기능성 에어스킨 드로즈 10종 패키지(2차)</t>
+          <t>[파워오투]파워오투 오렌지레몬 500ml 6입 4팩 (총24개)</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>49900</v>
+        <v>27900</v>
       </c>
       <c r="D131" t="n">
-        <v>40920</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="132">
@@ -2536,14 +2536,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[실크테라피]실크테라피 오리지널라이트 헤어에센스130ml+60ml 2개+트리트먼트100ml</t>
+          <t>[깨끗한나라]깨끗한나라 순수시그니처 화장지 브라운 30m 30롤 2팩</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>36900</v>
+        <v>77200</v>
       </c>
       <c r="D132" t="n">
-        <v>36900</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="133">
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[포스트]포스트 그래놀라 카카오호두 510g X3 +키친락 밀폐용기 1개</t>
+          <t>[지알앤]GRN 시즌4 올 뉴 분홍이+올 뉴 초록이 SET</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>25000</v>
+        <v>30900</v>
       </c>
       <c r="D133" t="n">
-        <v>17500</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="134">
@@ -2568,14 +2568,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>S129 이브닝잠옷ops 5종</t>
+          <t>[코카콜라]코카콜라+스프라이트+환타오렌지 190ml 각30캔</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>36330</v>
+        <v>52500</v>
       </c>
       <c r="D134" t="n">
-        <v>10900</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="135">
@@ -2584,14 +2584,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[농심]신라면+튀김우동+새우탕+오짬뽕 6입4개(총24개)</t>
+          <t>크록스 크록스 정품 클래식 크러쉬 클로그 공용샌들 207521-100</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>21500</v>
+        <v>56100</v>
       </c>
       <c r="D135" t="n">
-        <v>21500</v>
+        <v>52740</v>
       </c>
     </row>
     <row r="136">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[제주삼다수][무료배송] 제주 삼다수 그린(무라벨) 2L 24병 (유라벨/무라벨 랜덤발송)</t>
+          <t>[데미안]데미안 썸머 와이드 팬츠 3종</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>25920</v>
+        <v>39900</v>
       </c>
       <c r="D136" t="n">
-        <v>25920</v>
+        <v>35600</v>
       </c>
     </row>
     <row r="137">
@@ -2616,14 +2616,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[G클럽]니트릴장갑 화이트 베이직 블랙 200매 요리용 실험용 생활용 다목적 기획 알뜰구성</t>
+          <t>젊은사람들 ABC즙 60포 사과비트당근의 상큼달달</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8900</v>
+        <v>28900</v>
       </c>
       <c r="D137" t="n">
-        <v>8900</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="138">
@@ -2632,14 +2632,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>(강원) 하이원리조트 워터월드 성수기 이용권 (7/15~8/27)</t>
+          <t>(NS홈쇼핑) 동국제약 센텔리안24 마데카 더블타이트닝 앰플패드 본품 165mlX2통+리필 165ml+체..[33298968]</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>33640</v>
+        <v>29900</v>
       </c>
       <c r="D138" t="n">
-        <v>32300</v>
+        <v>28620</v>
       </c>
     </row>
     <row r="139">
@@ -2648,14 +2648,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[댄트롤]댄트롤 딥 클린 박하 솔트 샴푸 820ml 3개</t>
+          <t>THE NORTH FACE 노스페이스 23SS 보레알리스 토트 Black (NF0A52SVKX7)</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>20900</v>
+        <v>97400</v>
       </c>
       <c r="D139" t="n">
-        <v>19800</v>
+        <v>97400</v>
       </c>
     </row>
     <row r="140">
@@ -2664,14 +2664,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>냉장 설성 무항생제 한돈 벌집 삼겹살 400g</t>
+          <t>(하루특가) 벨라무드 쿨반바지/8900원 득템찬스 (시원한 밴딩 반바지)벨라무드 썸머 데일리 쿨 팬츠</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>20800</v>
+        <v>29600</v>
       </c>
       <c r="D140" t="n">
-        <v>20800</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="141">
@@ -2680,14 +2680,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[카이아크만]20% 카이아크만 - 여름 최종가 세일 반팔/데님/반바지/셔츠/팬츠 ~85%</t>
+          <t>15% 베어파우 윙스풋 탐스 슈즈기획전</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>37300</v>
+        <v>90000</v>
       </c>
       <c r="D141" t="n">
-        <v>11200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="142">
@@ -2696,14 +2696,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>진강샵 남여공용 M~2XL 배색 반팔티</t>
+          <t xml:space="preserve">(행사상품)농협프리미엄예천일품쌀10KG 포 </t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>15000</v>
+        <v>26900</v>
       </c>
       <c r="D142" t="n">
-        <v>4500</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="143">
@@ -2712,14 +2712,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[해태음료]강원평창수 2L 24병 /생수전문배송</t>
+          <t>[캔디베이비]50%할인 유아/아동/우비/장화/우산 모음</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>17940</v>
+        <v>13200</v>
       </c>
       <c r="D143" t="n">
-        <v>14900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="144">
@@ -2728,14 +2728,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[시크릿데이]시크릿데이 (최종 11900원) 유기농 메쉬 미피 생리대 외 So soft 실키/코튼 + 복수구매시 사은품</t>
+          <t>[농심]신라면+튀김우동+새우탕+오짬뽕 6입4개(총24개)</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>19600</v>
+        <v>21500</v>
       </c>
       <c r="D144" t="n">
-        <v>14000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="145">
@@ -2744,14 +2744,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[던킨]던킨 인기 미니도넛 3팩 골라담기 (딸기듬뿍바바리안 등)</t>
+          <t>[지오클린]지오클린 레몬테라피 주방세제 1종 대용량 4L 2개 베이킹소다 식초 사은공병</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>18900</v>
+        <v>20800</v>
       </c>
       <c r="D145" t="n">
-        <v>18900</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="146">
@@ -2760,14 +2760,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>냉동 국내산 한입삼겹살 (800g)</t>
+          <t>아동/성인 여름샌들 아쿠아슈즈 남녀캐주얼화 학생용실내화</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>19480</v>
+        <v>20900</v>
       </c>
       <c r="D146" t="n">
-        <v>19480</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="147">
@@ -2776,14 +2776,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[헬로]헬로 순수 3겹 30m 30롤 3팩 천연펄프 화장지 초특가행사</t>
+          <t>참존 톤업핏 콜라겐 6000 1개월분 28병입 마시는콜라겐 300DA (유통기한 23년10월까지/임박특가)</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>67000</v>
+        <v>25300</v>
       </c>
       <c r="D147" t="n">
-        <v>33500</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="148">
@@ -2792,14 +2792,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[내셔널지오그래픽][기존가 159 000원] 내셔널지오그래픽 헤러 플리스 풀집업 4컬러택1</t>
+          <t>[헬로]헬로 순수 3겹 30m 30롤 3팩 천연펄프 화장지 초특가행사</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>79500</v>
+        <v>67000</v>
       </c>
       <c r="D148" t="n">
-        <v>61220</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="149">
@@ -2808,14 +2808,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>제주농협 귤로장생 하우스감귤 4.5kg 로얄과(2S-M)</t>
+          <t>제이프랑 여름신상 티셔츠/팬츠/트레이닝세트</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>53570</v>
+        <v>29800</v>
       </c>
       <c r="D149" t="n">
-        <v>37500</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="150">
@@ -2824,14 +2824,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[월드컵]10%+무료배송 남성 여성 아동 아쿠아슈즈 여름 물놀이 신발 샌들 쪼리 운동화 슬립온 모음</t>
+          <t>[아이러브베베]아이러브베베아기물티슈 핑크100매캡형X20팩</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>51670</v>
+        <v>27800</v>
       </c>
       <c r="D150" t="n">
-        <v>15510</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="151">
@@ -2840,14 +2840,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[매일유업]매일 소화가 잘되는 멸균우유 190ml 48팩</t>
+          <t>[네추럴라이즈](총다당체 200mg)먹는 이뮨 알로에 젤리스틱 알로에겔 알로에베라 3박스</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>37900</v>
+        <v>27900</v>
       </c>
       <c r="D151" t="n">
-        <v>34900</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="152">
@@ -2856,14 +2856,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[제스프리]골드키위 슈퍼점보 스페셜선물 3.1kg 내외 박스포장 이중포장</t>
+          <t>(깨비농원)고당도 하우스귤 대용량 4.5kg 소과(2S)</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>49850</v>
+        <v>35900</v>
       </c>
       <c r="D152" t="n">
-        <v>34900</v>
+        <v>35900</v>
       </c>
     </row>
     <row r="153">
@@ -2872,14 +2872,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[엘포인트](엘포인트) 5만원권</t>
+          <t>[SOil](S-OIL) 에쓰-오일 모바일주유상품권 3만원권</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D153" t="n">
-        <v>48750</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="154">
@@ -2888,14 +2888,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>(10%쿠폰)베르디베어 남자여자 반팔티 쿨론티 블랙 40종 곰돌이 반팔 티셔츠 기능성 남성 여성 빅사이즈 티</t>
+          <t>[닥터라파알]닥터라파알 맥주 효모 탈모 샴푸 1000ml + 1000ml / 12900원 올킬 특가</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>33000</v>
+        <v>25800</v>
       </c>
       <c r="D154" t="n">
-        <v>10000</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="155">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[하기스]하기스 네이처메이드 썸머 팬티형 5단계 공용 40매 4팩 X 2세트 기저귀 NEW</t>
+          <t>[모나리자]천연펄프 소프트리 퓨어 25m 30롤 3개 (총90롤)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>204900</v>
+        <v>30900</v>
       </c>
       <c r="D155" t="n">
-        <v>204900</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="156">
@@ -2920,14 +2920,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[개암나무]공구/ 개암나무-우리말표현력활동책(전4권)</t>
+          <t>[쟈스]쟈스 엑토인 맨얼굴 크림 55ml</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>50000</v>
+        <v>26900</v>
       </c>
       <c r="D156" t="n">
-        <v>35000</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="157">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>청도 달콤한 털복숭아 아삭아삭 대월 경봉 딱딱이(14-15과 내외) 4kg 아웃박스 안전배송</t>
+          <t>[정관장]홍삼진고 250g 2병 + 홍삼정 에브리타임밸런스 6포 증정  (증정특별혜택/쇼핑백동봉)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>25800</v>
+        <v>132000</v>
       </c>
       <c r="D157" t="n">
-        <v>25800</v>
+        <v>92400</v>
       </c>
     </row>
     <row r="158">
@@ -2952,14 +2952,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>개념원리 에이급 블랙라벨 초 중등 참고서 선택구매</t>
+          <t>[올리빙]조립마루 데크타일 20p 베란다/욕실 매트 바닥재 장마철 끈적한 바닥 완벽해결</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>21880</v>
+        <v>27700</v>
       </c>
       <c r="D158" t="n">
-        <v>17500</v>
+        <v>27700</v>
       </c>
     </row>
     <row r="159">
@@ -2968,14 +2968,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[스파클]스파클생수 500ml 100병 (도착보장/무라벨생수)</t>
+          <t>갤럭시북2 NT550XEZ-A58A 최종64만 메모리8GB이벤트 인텔12세대 대학생선물 인강용 업무용 가성비노트북</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>19900</v>
+        <v>733680</v>
       </c>
       <c r="D159" t="n">
-        <v>19900</v>
+        <v>697000</v>
       </c>
     </row>
     <row r="160">
@@ -2984,14 +2984,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[버팔로][BUFFALO] 프리미엄 블랙라벨 구명조끼</t>
+          <t>[비에프엘아웃도어]BFL new2101 발편한 운동화 가벼운 런닝화 조깅화 워킹화</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>19900</v>
+        <v>76300</v>
       </c>
       <c r="D160" t="n">
-        <v>19050</v>
+        <v>22890</v>
       </c>
     </row>
     <row r="161">
@@ -3000,14 +3000,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[아르페지오](5%+5%더블쿠폰) 여름 차렵이불 냉감/모기기피/풍기인견/시어서커/순면/패드</t>
+          <t>[데상트]데상트 스포츠양말 6족 세트 (3개입 2팩)</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>65900</v>
+        <v>63000</v>
       </c>
       <c r="D161" t="n">
-        <v>19900</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="162">
@@ -3016,14 +3016,14 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[신세계푸드]신세계푸드 직수입 워싱턴 생체리  10Row 1.5kg</t>
+          <t>[에너지24맨즈](16900원) (1+1) 에너지24맨즈 올인원 프레쉬 에센스 120ml</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>24200</v>
+        <v>40000</v>
       </c>
       <c r="D162" t="n">
-        <v>24200</v>
+        <v>18770</v>
       </c>
     </row>
     <row r="163">
@@ -3032,14 +3032,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[잘풀리는집]잘풀리는집 미용티슈 280매 3개 4팩 총12개</t>
+          <t>[덴프스]덴마크 유산균 이야기 170mg x 60캡슐  1박스_AE</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>22900</v>
+        <v>25310</v>
       </c>
       <c r="D163" t="n">
-        <v>20900</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="164">
@@ -3048,14 +3048,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[해피홈]해피홈 파워매트 훈증기+리필90매 2세트</t>
+          <t>[베베숲]NEW 베베숲 프라임 70매 캡 20팩 단독런칭</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>24500</v>
+        <v>43300</v>
       </c>
       <c r="D164" t="n">
-        <v>24500</v>
+        <v>34900</v>
       </c>
     </row>
     <row r="165">
@@ -3064,14 +3064,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[매일유업]피크닉 사과 200ML 48팩</t>
+          <t>국내산 45년 전통 할매손 충무김밥 석박지 2kg</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>19900</v>
+        <v>12000</v>
       </c>
       <c r="D165" t="n">
-        <v>19900</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="166">
@@ -3080,14 +3080,14 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[닥터메디오]닥터메디오 베베맘맘 도톰한 엠보싱 물티슈 캡형 1000매(100매x10팩)</t>
+          <t>(프로젝트엠) (광주신세계)프로젝트M  반팔 스웨터 2종택1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="D166" t="n">
-        <v>8900</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="167">
@@ -3096,14 +3096,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[스파클]스파클생수 2L 30병 (도착보장/무라벨생수)</t>
+          <t>[피죤]피죤 섬유유연제 3100ml 4개 핑크로즈</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>17900</v>
+        <v>21000</v>
       </c>
       <c r="D167" t="n">
-        <v>17900</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="168">
@@ -3112,14 +3112,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">(행사상품)농협프리미엄예천일품쌀10KG 포 </t>
+          <t>[롯데제과]마가렛트 오리지널 352g 4묶음</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>26900</v>
+        <v>22900</v>
       </c>
       <c r="D168" t="n">
-        <v>26900</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="169">
@@ -3128,14 +3128,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[아이러브베베]아이러브베베아기물티슈 핑크100매캡형X20팩</t>
+          <t>하림 무항생제 두마리 영계 1kg (500g2)</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>27800</v>
+        <v>11580</v>
       </c>
       <c r="D169" t="n">
-        <v>13900</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="170">
@@ -3144,14 +3144,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[어나더디](15%쿠폰가 11820원)(1+1) 더 아이 주니어 하이틴 심리스 브라탑 일체형 노와이어</t>
+          <t>냉동 국내산 한입삼겹살 (800g)</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>46330</v>
+        <v>19480</v>
       </c>
       <c r="D170" t="n">
-        <v>13900</v>
+        <v>19480</v>
       </c>
     </row>
     <row r="171">
@@ -3160,14 +3160,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>(깨비농원)고당도 하우스귤 대용량 4.5kg 소과(2S)</t>
+          <t>[세균아꼼짝마]세꼼마 핸드워시 3.5L 레몬향</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>34900</v>
+        <v>19900</v>
       </c>
       <c r="D171" t="n">
-        <v>34900</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="172">
@@ -3176,14 +3176,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[동원에프앤비]동원 라이트 스탠다드 참치 150g 원터치 10개</t>
+          <t>[매일유업]상하목장 유기농 멸균우유 125ml x 48팩</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>27900</v>
+        <v>56100</v>
       </c>
       <c r="D172" t="n">
-        <v>25900</v>
+        <v>39300</v>
       </c>
     </row>
     <row r="173">
@@ -3192,14 +3192,14 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>(UNSEEN SET) SHOWNU X HYUNGWON THE 1ST MINI ALBUM THE UNSEEN</t>
+          <t>제이준 진정보습 마스크팩 30+10매 / Summer Big Sale</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="D173" t="n">
-        <v>40000</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="174">
@@ -3208,14 +3208,14 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[피자헛](피자헛) 립스테이크 리치골드L + 벌집감자 + 콜라 1.25L</t>
+          <t>[동원에프앤비]동원 라이트 스탠다드 참치 150g 원터치 10개</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>49800</v>
+        <v>27900</v>
       </c>
       <c r="D174" t="n">
-        <v>26200</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="175">
@@ -3224,14 +3224,14 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[쿠쿠](혜택가 22.2만원) 쿠쿠 본사직영 CRP-CHP1010FD 10인용 IH전기압력 밥솥</t>
+          <t>[다우니]다우니 대용량 섬유유연제 엘레강스 8L 1개</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>321120</v>
+        <v>26200</v>
       </c>
       <c r="D175" t="n">
-        <v>253690</v>
+        <v>24110</v>
       </c>
     </row>
     <row r="176">
@@ -3240,14 +3240,14 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[오쏘몰]오쏘몰 이뮨 30일 1+1 2박스 드링크+정제 orthomol 독일직구 무료배송</t>
+          <t>[구달]청귤 비타C 잡티세럼 더블시너지 세트 (세럼 30ml2+크림 40ml2+아이크림 15ml)</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>147000</v>
+        <v>48900</v>
       </c>
       <c r="D176" t="n">
-        <v>147000</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="177">
@@ -3256,14 +3256,14 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[델포유]델포유 오븐에 구운 십센치 파운드 30개 5가지맛</t>
+          <t>[요즘에](쿠폰가 20880원)청반바지 판매1위 마이픽데님숏팬츠 하이웨스트 워싱 난스판 데님 반바지 4칼라 (무료반품)</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>26600</v>
+        <v>77300</v>
       </c>
       <c r="D177" t="n">
-        <v>18600</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="178">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[삼성전자]비스포크 김치플러스 김치냉장고 RQ33A74C1AP 키친핏 1등급 3도어 색상선택 공식인증점</t>
+          <t>[바디닥터스]바디닥터스 스피드 글루타치온 화이트 필름 2+1(총 90매) (한정특가+경품추첨+20%쿠폰+대마종자유 증정)</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1530850</v>
+        <v>60700</v>
       </c>
       <c r="D178" t="n">
-        <v>1439000</v>
+        <v>60700</v>
       </c>
     </row>
     <row r="179">
@@ -3288,14 +3288,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[홍천철원물류센터]홍천철원 22년산 참드림 특등급 10kg</t>
+          <t>[아웃백스테이크하우스](아웃백) 아웃백 디지털 기프트 카드 5만원권</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>39400</v>
+        <v>50000</v>
       </c>
       <c r="D179" t="n">
-        <v>32100</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="180">
@@ -3304,14 +3304,14 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[캘빈클라인][Calvin Klein Underwear] 캘빈클라인 프리미엄 드로즈 6종 패키지 (7-3차)</t>
+          <t xml:space="preserve">[농협](전단상품)유명산지점보수박9KG이상 통 </t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>139900</v>
+        <v>25990</v>
       </c>
       <c r="D180" t="n">
-        <v>125910</v>
+        <v>25990</v>
       </c>
     </row>
     <row r="181">
@@ -3320,14 +3320,14 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>상상의집 보드게임 모음전 와당탕 조선 임진왜란 독립운동 대항해 관용어</t>
+          <t>[남양]남양유업 임페리얼드림 XO 골드 2단계 800g 3캔</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>22000</v>
+        <v>54900</v>
       </c>
       <c r="D181" t="n">
-        <v>14300</v>
+        <v>54900</v>
       </c>
     </row>
     <row r="182">
@@ -3336,14 +3336,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[피코크]피코크 정선생 곤드레나물밥 5입(1110g)</t>
+          <t>[길벗스쿨]길벗스쿨 기적특강 세트 선택구매</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>10980</v>
+        <v>45000</v>
       </c>
       <c r="D182" t="n">
-        <v>10980</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="183">
@@ -3352,14 +3352,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[마레몬떼](10%중복쿠폰)  마레몬떼/에꼴드파리 여름 데일리룩 블라우스/원피스/팬츠外</t>
+          <t>[SFG우설화](SFG신화푸드) 페이즈 통합 디지털 5만원권</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>39600</v>
+        <v>50000</v>
       </c>
       <c r="D183" t="n">
-        <v>11900</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="184">
@@ -3368,14 +3368,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[아디다스]나이키外 인기 신상 반팔티/반바지/쇼트/운동복 모음</t>
+          <t>[신세계푸드]올바르고 반듯한 우리 돼지 꼬마돈까스  (500gX3개)</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>33330</v>
+        <v>36440</v>
       </c>
       <c r="D184" t="n">
-        <v>10000</v>
+        <v>25130</v>
       </c>
     </row>
     <row r="185">
@@ -3384,14 +3384,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[프레시누리]청정우 차돌박이 (3초구이 샤브용) 250gX4팩</t>
+          <t>[오미노비앙코]이태리직수입 액체 비앙코 세탁세제 일반 드럼 겸용 2L 6통</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>31900</v>
+        <v>99800</v>
       </c>
       <c r="D185" t="n">
-        <v>22900</v>
+        <v>49900</v>
       </c>
     </row>
     <row r="186">
@@ -3400,14 +3400,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">[농협](행사상품)믿고먹는안심농협쌀20KG 포 </t>
+          <t>[아이디]아이디 석고팩(4매 4주분) +탄력앰플2mlX4ea</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>49900</v>
+        <v>28000</v>
       </c>
       <c r="D186" t="n">
-        <v>49900</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="187">
@@ -3416,14 +3416,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[헤네스]((1+1)) 물놀이 야외활동  자외선차단 성인 플랩캡</t>
+          <t>[모던하우스]보들보들 뱀부100% 거즈블랑켓 120x120 2P 토끼체리 아이보리핑크</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>54000</v>
+        <v>39800</v>
       </c>
       <c r="D187" t="n">
-        <v>16200</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="188">
@@ -3432,14 +3432,14 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>(특가) 벌거벗은 세계사 1-5권 벌거벗은 한국사 1-2권 낱권 선택구매</t>
+          <t>(더엣지) [최초2만원인하] 더엣지 23SS 뉴 버튼카라니트 4종</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>14000</v>
+        <v>39900</v>
       </c>
       <c r="D188" t="n">
-        <v>9800</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="189">
@@ -3448,14 +3448,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[요기요](요기요) 2만원권</t>
+          <t>더리미티드 양념 닭불고기 (800g2)</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>20000</v>
+        <v>14980</v>
       </c>
       <c r="D189" t="n">
-        <v>20000</v>
+        <v>14980</v>
       </c>
     </row>
     <row r="190">
@@ -3464,14 +3464,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>책캉스 준비  읽기 좋은 베스트 도서 260종 모음+무료배송</t>
+          <t>널담 수제쿠키 6종 1BOX / 2세트 구매시 4천원 할인</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="D190" t="n">
-        <v>3900</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="191">
@@ -3480,14 +3480,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[별똥별]별똥별_개정판 야물야물 그림책 전20권 세트 (책17권+보드북3권)</t>
+          <t>데이데이 여름신상20%/반팔/티셔츠/블라우스/니트/원피스/가디건/린넨/자켓/팬츠</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>509000</v>
+        <v>39600</v>
       </c>
       <c r="D191" t="n">
-        <v>254500</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="192">
@@ -3496,14 +3496,14 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>엄마랑 낱말카드 210장 세이펜 호환버전/세이펜 선택구매</t>
+          <t>[나이키골프]나이키 남여공용볼캡 골프모자 4종 헤리티지86 레거시91</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>40000</v>
+        <v>21800</v>
       </c>
       <c r="D192" t="n">
-        <v>16900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="193">
@@ -3512,14 +3512,14 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>유명산지 의성자두 800g (팩)</t>
+          <t>[꿈꾸는달팽이]우리 아기 첫 스티커놀이 아기 손바닥 스티커북 세트</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>12900</v>
+        <v>21000</v>
       </c>
       <c r="D193" t="n">
-        <v>12900</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="194">
@@ -3528,14 +3528,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[쟈스]쟈스 엑토인 맨얼굴 크림 30ml</t>
+          <t>[농심]백산수 무라벨 500ml 40병 /생수전문배송</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="D194" t="n">
-        <v>19000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="195">
@@ -3544,14 +3544,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[베베숲]NEW 베베숲 프라임 70매 캡 20팩 단독런칭</t>
+          <t>냉동 국내산 대패 삼겹살 (800g)</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>43300</v>
+        <v>20480</v>
       </c>
       <c r="D195" t="n">
-        <v>34900</v>
+        <v>20480</v>
       </c>
     </row>
     <row r="196">
@@ -3560,14 +3560,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[어나더디](15%쿠폰가 12670원)(4개세트) 심리스 브라탑 4color 노라인 노와이어 스포츠브라 스판소재</t>
+          <t>[애경]케라시스 퍼퓸 체리블라썸 샴푸 1L X3개</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>49660</v>
+        <v>20900</v>
       </c>
       <c r="D196" t="n">
-        <v>14900</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="197">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[한예지]한예지 볼륨앤소프트 천연펄프 화장지 30롤 3팩 (가성비갑)</t>
+          <t>[꽃을든남자]꽃을든남자 에너지팩토리 맨즈 남성스킨로션 남성 남자 순한 가벼운 올인원 플루이드 200ml</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>55000</v>
+        <v>23000</v>
       </c>
       <c r="D197" t="n">
-        <v>27500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="198">
@@ -3592,14 +3592,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[동원에프앤비]동원 자연산골뱅이 300g x 5개 +제로음료6병 랜덤증정</t>
+          <t>[웅진]빅토리아 청귤 500ml 40개</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>27780</v>
+        <v>20900</v>
       </c>
       <c r="D198" t="n">
-        <v>25010</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="199">
@@ -3608,14 +3608,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>10%쿠폰 (1+1) 남녀공용 스티치 5부 트레이닝 팬츠</t>
+          <t>엄마랑 낱말카드 210장 세이펜 호환버전/세이펜 선택구매</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="D199" t="n">
-        <v>9900</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="200">
@@ -3624,14 +3624,14 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[디즈니]10%쿠폰 방학 대비 초특가 아동슬리퍼1+1/아동아쿠아슈즈/아동샌들/샌들/슬리퍼/아쿠아슈즈</t>
+          <t>[인플루엔셜]인플루엔셜 미움받을용기/파친코 선택구매</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="D200" t="n">
-        <v>10500</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="201">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[포레스트핏](냉장고바지6탄) 1+1 밴딩 쿨 바스락 5부 반바지</t>
+          <t>[썬글레이드]베이비반즈 썬글레이드 UV 썬햇 아동 성인 플랩캡 선글라스 외</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>53000</v>
+        <v>69900</v>
       </c>
       <c r="D201" t="n">
-        <v>15900</v>
+        <v>22900</v>
       </c>
     </row>
   </sheetData>
